--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Pltp-Abca1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.375006</v>
+        <v>6.335208333333334</v>
       </c>
       <c r="H2">
-        <v>34.125018</v>
+        <v>19.005625</v>
       </c>
       <c r="I2">
-        <v>0.04381942287440288</v>
+        <v>0.1322597286322819</v>
       </c>
       <c r="J2">
-        <v>0.04381942287440288</v>
+        <v>0.132259728632282</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>36.42014833333334</v>
+        <v>31.509489</v>
       </c>
       <c r="N2">
-        <v>109.260445</v>
+        <v>94.52846700000001</v>
       </c>
       <c r="O2">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="P2">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="Q2">
-        <v>414.2794058125567</v>
+        <v>199.619177291875</v>
       </c>
       <c r="R2">
-        <v>3728.514652313011</v>
+        <v>1796.572595626875</v>
       </c>
       <c r="S2">
-        <v>0.005684879201096618</v>
+        <v>0.01971290921183481</v>
       </c>
       <c r="T2">
-        <v>0.005684879201096616</v>
+        <v>0.01971290921183481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.375006</v>
+        <v>6.335208333333334</v>
       </c>
       <c r="H3">
-        <v>34.125018</v>
+        <v>19.005625</v>
       </c>
       <c r="I3">
-        <v>0.04381942287440288</v>
+        <v>0.1322597286322819</v>
       </c>
       <c r="J3">
-        <v>0.04381942287440288</v>
+        <v>0.132259728632282</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>23.799692</v>
       </c>
       <c r="O3">
-        <v>0.02825940145637399</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="P3">
-        <v>0.02825940145637398</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="Q3">
-        <v>90.24054643271734</v>
+        <v>50.25866902972223</v>
       </c>
       <c r="R3">
-        <v>812.1649178944562</v>
+        <v>452.3280212675</v>
       </c>
       <c r="S3">
-        <v>0.001238310662594368</v>
+        <v>0.004963173344021661</v>
       </c>
       <c r="T3">
-        <v>0.001238310662594368</v>
+        <v>0.004963173344021661</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.375006</v>
+        <v>6.335208333333334</v>
       </c>
       <c r="H4">
-        <v>34.125018</v>
+        <v>19.005625</v>
       </c>
       <c r="I4">
-        <v>0.04381942287440288</v>
+        <v>0.1322597286322819</v>
       </c>
       <c r="J4">
-        <v>0.04381942287440288</v>
+        <v>0.132259728632282</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>87.346929</v>
+        <v>35.34979766666667</v>
       </c>
       <c r="N4">
-        <v>262.040787</v>
+        <v>106.049393</v>
       </c>
       <c r="O4">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="P4">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="Q4">
-        <v>993.5718414565741</v>
+        <v>223.9483327595139</v>
       </c>
       <c r="R4">
-        <v>8942.146573109168</v>
+        <v>2015.534994835625</v>
       </c>
       <c r="S4">
-        <v>0.01363412184395999</v>
+        <v>0.02211547613671964</v>
       </c>
       <c r="T4">
-        <v>0.01363412184395999</v>
+        <v>0.02211547613671964</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.375006</v>
+        <v>6.335208333333334</v>
       </c>
       <c r="H5">
-        <v>34.125018</v>
+        <v>19.005625</v>
       </c>
       <c r="I5">
-        <v>0.04381942287440288</v>
+        <v>0.1322597286322819</v>
       </c>
       <c r="J5">
-        <v>0.04381942287440288</v>
+        <v>0.132259728632282</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.618486</v>
+        <v>2.176630333333333</v>
       </c>
       <c r="N5">
-        <v>34.855458</v>
+        <v>6.529891</v>
       </c>
       <c r="O5">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="P5">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="Q5">
-        <v>132.160347960916</v>
+        <v>13.78940662631945</v>
       </c>
       <c r="R5">
-        <v>1189.443131648244</v>
+        <v>124.104659636875</v>
       </c>
       <c r="S5">
-        <v>0.001813548061504753</v>
+        <v>0.001361739511190605</v>
       </c>
       <c r="T5">
-        <v>0.001813548061504753</v>
+        <v>0.001361739511190605</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.375006</v>
+        <v>6.335208333333334</v>
       </c>
       <c r="H6">
-        <v>34.125018</v>
+        <v>19.005625</v>
       </c>
       <c r="I6">
-        <v>0.04381942287440288</v>
+        <v>0.1322597286322819</v>
       </c>
       <c r="J6">
-        <v>0.04381942287440288</v>
+        <v>0.132259728632282</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>35.06224833333334</v>
+        <v>41.58463166666667</v>
       </c>
       <c r="N6">
-        <v>105.186745</v>
+        <v>124.753895</v>
       </c>
       <c r="O6">
-        <v>0.1248971816460583</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="P6">
-        <v>0.1248971816460582</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="Q6">
-        <v>398.8332851651567</v>
+        <v>263.4473050732639</v>
       </c>
       <c r="R6">
-        <v>3589.49956648641</v>
+        <v>2371.025745659375</v>
       </c>
       <c r="S6">
-        <v>0.005472922418369737</v>
+        <v>0.02601610164647833</v>
       </c>
       <c r="T6">
-        <v>0.005472922418369735</v>
+        <v>0.02601610164647834</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.375006</v>
+        <v>6.335208333333334</v>
       </c>
       <c r="H7">
-        <v>34.125018</v>
+        <v>19.005625</v>
       </c>
       <c r="I7">
-        <v>0.04381942287440288</v>
+        <v>0.1322597286322819</v>
       </c>
       <c r="J7">
-        <v>0.04381942287440288</v>
+        <v>0.132259728632282</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>102.347857</v>
+        <v>92.85268633333334</v>
       </c>
       <c r="N7">
-        <v>307.043571</v>
+        <v>278.558059</v>
       </c>
       <c r="O7">
-        <v>0.3645789843619687</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="P7">
-        <v>0.3645789843619686</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="Q7">
-        <v>1164.207487462142</v>
+        <v>588.2411122313196</v>
       </c>
       <c r="R7">
-        <v>10477.86738715928</v>
+        <v>5294.170010081876</v>
       </c>
       <c r="S7">
-        <v>0.01597564068687742</v>
+        <v>0.05809032878203689</v>
       </c>
       <c r="T7">
-        <v>0.01597564068687742</v>
+        <v>0.0580903287820369</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>2.226739</v>
       </c>
       <c r="I8">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170871</v>
       </c>
       <c r="J8">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170872</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.42014833333334</v>
+        <v>31.509489</v>
       </c>
       <c r="N8">
-        <v>109.260445</v>
+        <v>94.52846700000001</v>
       </c>
       <c r="O8">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="P8">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="Q8">
-        <v>27.03272155987278</v>
+        <v>23.38780267545701</v>
       </c>
       <c r="R8">
-        <v>243.294494038855</v>
+        <v>210.490224079113</v>
       </c>
       <c r="S8">
-        <v>0.0003709519575160571</v>
+        <v>0.002309605905906901</v>
       </c>
       <c r="T8">
-        <v>0.000370951957516057</v>
+        <v>0.002309605905906901</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>2.226739</v>
       </c>
       <c r="I9">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170871</v>
       </c>
       <c r="J9">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170872</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>23.799692</v>
       </c>
       <c r="O9">
-        <v>0.02825940145637399</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="P9">
-        <v>0.02825940145637398</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="Q9">
         <v>5.88841137382089</v>
@@ -1013,10 +1013,10 @@
         <v>52.99570236438801</v>
       </c>
       <c r="S9">
-        <v>8.080273090302023E-05</v>
+        <v>0.0005814958281505318</v>
       </c>
       <c r="T9">
-        <v>8.080273090302021E-05</v>
+        <v>0.0005814958281505318</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>2.226739</v>
       </c>
       <c r="I10">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170871</v>
       </c>
       <c r="J10">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170872</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>87.346929</v>
+        <v>35.34979766666667</v>
       </c>
       <c r="N10">
-        <v>262.040787</v>
+        <v>106.049393</v>
       </c>
       <c r="O10">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="P10">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="Q10">
-        <v>64.83293777817701</v>
+        <v>26.23825770215856</v>
       </c>
       <c r="R10">
-        <v>583.4964400035931</v>
+        <v>236.144319319427</v>
       </c>
       <c r="S10">
-        <v>0.0008896590425446111</v>
+        <v>0.002591095700204701</v>
       </c>
       <c r="T10">
-        <v>0.0008896590425446111</v>
+        <v>0.002591095700204701</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>2.226739</v>
       </c>
       <c r="I11">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170871</v>
       </c>
       <c r="J11">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170872</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.618486</v>
+        <v>2.176630333333333</v>
       </c>
       <c r="N11">
-        <v>34.855458</v>
+        <v>6.529891</v>
       </c>
       <c r="O11">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="P11">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="Q11">
-        <v>8.623778632384667</v>
+        <v>1.615595883938778</v>
       </c>
       <c r="R11">
-        <v>77.61400769146201</v>
+        <v>14.540362955449</v>
       </c>
       <c r="S11">
-        <v>0.0001183383462809318</v>
+        <v>0.0001595442653114042</v>
       </c>
       <c r="T11">
-        <v>0.0001183383462809318</v>
+        <v>0.0001595442653114042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>2.226739</v>
       </c>
       <c r="I12">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170871</v>
       </c>
       <c r="J12">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170872</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>35.06224833333334</v>
+        <v>41.58463166666667</v>
       </c>
       <c r="N12">
-        <v>105.186745</v>
+        <v>124.753895</v>
       </c>
       <c r="O12">
-        <v>0.1248971816460583</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="P12">
-        <v>0.1248971816460582</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="Q12">
-        <v>26.02482526383945</v>
+        <v>30.86604037760056</v>
       </c>
       <c r="R12">
-        <v>234.223427374555</v>
+        <v>277.794363398405</v>
       </c>
       <c r="S12">
-        <v>0.0003571212707626472</v>
+        <v>0.003048101189209906</v>
       </c>
       <c r="T12">
-        <v>0.0003571212707626471</v>
+        <v>0.003048101189209907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>2.226739</v>
       </c>
       <c r="I13">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170871</v>
       </c>
       <c r="J13">
-        <v>0.00285932209242864</v>
+        <v>0.01549582799170872</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>102.347857</v>
+        <v>92.85268633333334</v>
       </c>
       <c r="N13">
-        <v>307.043571</v>
+        <v>278.558059</v>
       </c>
       <c r="O13">
-        <v>0.3645789843619687</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="P13">
-        <v>0.3645789843619686</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="Q13">
-        <v>75.96732158277436</v>
+        <v>68.91956597106679</v>
       </c>
       <c r="R13">
-        <v>683.7058942449692</v>
+        <v>620.2760937396012</v>
       </c>
       <c r="S13">
-        <v>0.001042448744421373</v>
+        <v>0.00680598510292527</v>
       </c>
       <c r="T13">
-        <v>0.001042448744421372</v>
+        <v>0.00680598510292527</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>98.73397366666666</v>
+        <v>12.05594666666667</v>
       </c>
       <c r="H14">
-        <v>296.201921</v>
+        <v>36.16784</v>
       </c>
       <c r="I14">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="J14">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>36.42014833333334</v>
+        <v>31.509489</v>
       </c>
       <c r="N14">
-        <v>109.260445</v>
+        <v>94.52846700000001</v>
       </c>
       <c r="O14">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="P14">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="Q14">
-        <v>3595.905966479427</v>
+        <v>379.87671887792</v>
       </c>
       <c r="R14">
-        <v>32363.15369831484</v>
+        <v>3418.89046990128</v>
       </c>
       <c r="S14">
-        <v>0.04934421250760258</v>
+        <v>0.03751380690233378</v>
       </c>
       <c r="T14">
-        <v>0.04934421250760257</v>
+        <v>0.03751380690233379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>98.73397366666666</v>
+        <v>12.05594666666667</v>
       </c>
       <c r="H15">
-        <v>296.201921</v>
+        <v>36.16784</v>
       </c>
       <c r="I15">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="J15">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>23.799692</v>
       </c>
       <c r="O15">
-        <v>0.02825940145637399</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="P15">
-        <v>0.02825940145637398</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="Q15">
-        <v>783.279387734259</v>
+        <v>95.64260581169776</v>
       </c>
       <c r="R15">
-        <v>7049.514489608331</v>
+        <v>860.78345230528</v>
       </c>
       <c r="S15">
-        <v>0.0107484191526356</v>
+        <v>0.009444954291102784</v>
       </c>
       <c r="T15">
-        <v>0.0107484191526356</v>
+        <v>0.009444954291102786</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>98.73397366666666</v>
+        <v>12.05594666666667</v>
       </c>
       <c r="H16">
-        <v>296.201921</v>
+        <v>36.16784</v>
       </c>
       <c r="I16">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="J16">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>87.346929</v>
+        <v>35.34979766666667</v>
       </c>
       <c r="N16">
-        <v>262.040787</v>
+        <v>106.049393</v>
       </c>
       <c r="O16">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="P16">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="Q16">
-        <v>8624.109387750203</v>
+        <v>426.1752753467911</v>
       </c>
       <c r="R16">
-        <v>77616.98448975182</v>
+        <v>3835.57747812112</v>
       </c>
       <c r="S16">
-        <v>0.1183428850155921</v>
+        <v>0.0420859089052159</v>
       </c>
       <c r="T16">
-        <v>0.1183428850155921</v>
+        <v>0.04208590890521591</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>98.73397366666666</v>
+        <v>12.05594666666667</v>
       </c>
       <c r="H17">
-        <v>296.201921</v>
+        <v>36.16784</v>
       </c>
       <c r="I17">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="J17">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.618486</v>
+        <v>2.176630333333333</v>
       </c>
       <c r="N17">
-        <v>34.855458</v>
+        <v>6.529891</v>
       </c>
       <c r="O17">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="P17">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="Q17">
-        <v>1147.139290770535</v>
+        <v>26.24133921171555</v>
       </c>
       <c r="R17">
-        <v>10324.25361693482</v>
+        <v>236.17205290544</v>
       </c>
       <c r="S17">
-        <v>0.0157414252394983</v>
+        <v>0.002591400007230491</v>
       </c>
       <c r="T17">
-        <v>0.0157414252394983</v>
+        <v>0.002591400007230492</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>98.73397366666666</v>
+        <v>12.05594666666667</v>
       </c>
       <c r="H18">
-        <v>296.201921</v>
+        <v>36.16784</v>
       </c>
       <c r="I18">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="J18">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>35.06224833333334</v>
+        <v>41.58463166666667</v>
       </c>
       <c r="N18">
-        <v>105.186745</v>
+        <v>124.753895</v>
       </c>
       <c r="O18">
-        <v>0.1248971816460583</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="P18">
-        <v>0.1248971816460582</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="Q18">
-        <v>3461.835103637461</v>
+        <v>501.3421015263111</v>
       </c>
       <c r="R18">
-        <v>31156.51593273714</v>
+        <v>4512.0789137368</v>
       </c>
       <c r="S18">
-        <v>0.04750444772820579</v>
+        <v>0.04950882708532683</v>
       </c>
       <c r="T18">
-        <v>0.04750444772820577</v>
+        <v>0.04950882708532684</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>98.73397366666666</v>
+        <v>12.05594666666667</v>
       </c>
       <c r="H19">
-        <v>296.201921</v>
+        <v>36.16784</v>
       </c>
       <c r="I19">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="J19">
-        <v>0.3803484362267435</v>
+        <v>0.2516912073986408</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>102.347857</v>
+        <v>92.85268633333334</v>
       </c>
       <c r="N19">
-        <v>307.043571</v>
+        <v>278.558059</v>
       </c>
       <c r="O19">
-        <v>0.3645789843619687</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="P19">
-        <v>0.3645789843619686</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="Q19">
-        <v>10105.21061787777</v>
+        <v>1119.427034291396</v>
       </c>
       <c r="R19">
-        <v>90946.89556089989</v>
+        <v>10074.84330862256</v>
       </c>
       <c r="S19">
-        <v>0.1386670465832091</v>
+        <v>0.110546310207431</v>
       </c>
       <c r="T19">
-        <v>0.1386670465832091</v>
+        <v>0.110546310207431</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8392539999999999</v>
+        <v>0.7291693333333334</v>
       </c>
       <c r="H20">
-        <v>2.517762</v>
+        <v>2.187508</v>
       </c>
       <c r="I20">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="J20">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>36.42014833333334</v>
+        <v>31.509489</v>
       </c>
       <c r="N20">
-        <v>109.260445</v>
+        <v>94.52846700000001</v>
       </c>
       <c r="O20">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="P20">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="Q20">
-        <v>30.56575516934333</v>
+        <v>22.97575308780401</v>
       </c>
       <c r="R20">
-        <v>275.09179652409</v>
+        <v>206.781777790236</v>
       </c>
       <c r="S20">
-        <v>0.0004194334147197057</v>
+        <v>0.002268914945136629</v>
       </c>
       <c r="T20">
-        <v>0.0004194334147197056</v>
+        <v>0.002268914945136629</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8392539999999999</v>
+        <v>0.7291693333333334</v>
       </c>
       <c r="H21">
-        <v>2.517762</v>
+        <v>2.187508</v>
       </c>
       <c r="I21">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="J21">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>23.799692</v>
       </c>
       <c r="O21">
-        <v>0.02825940145637399</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="P21">
-        <v>0.02825940145637398</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="Q21">
-        <v>6.657995569922666</v>
+        <v>5.78466851639289</v>
       </c>
       <c r="R21">
-        <v>59.921960129304</v>
+        <v>52.06201664753601</v>
       </c>
       <c r="S21">
-        <v>9.136322010071677E-05</v>
+        <v>0.0005712509530959458</v>
       </c>
       <c r="T21">
-        <v>9.136322010071677E-05</v>
+        <v>0.0005712509530959458</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8392539999999999</v>
+        <v>0.7291693333333334</v>
       </c>
       <c r="H22">
-        <v>2.517762</v>
+        <v>2.187508</v>
       </c>
       <c r="I22">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="J22">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>87.346929</v>
+        <v>35.34979766666667</v>
       </c>
       <c r="N22">
-        <v>262.040787</v>
+        <v>106.049393</v>
       </c>
       <c r="O22">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="P22">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="Q22">
-        <v>73.306259550966</v>
+        <v>25.77598839807156</v>
       </c>
       <c r="R22">
-        <v>659.756335958694</v>
+        <v>231.983895582644</v>
       </c>
       <c r="S22">
-        <v>0.001005932769972235</v>
+        <v>0.002545445412759818</v>
       </c>
       <c r="T22">
-        <v>0.001005932769972235</v>
+        <v>0.002545445412759818</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8392539999999999</v>
+        <v>0.7291693333333334</v>
       </c>
       <c r="H23">
-        <v>2.517762</v>
+        <v>2.187508</v>
       </c>
       <c r="I23">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="J23">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.618486</v>
+        <v>2.176630333333333</v>
       </c>
       <c r="N23">
-        <v>34.855458</v>
+        <v>6.529891</v>
       </c>
       <c r="O23">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="P23">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="Q23">
-        <v>9.750860849443999</v>
+        <v>1.587132089069778</v>
       </c>
       <c r="R23">
-        <v>87.75774764499599</v>
+        <v>14.284188801628</v>
       </c>
       <c r="S23">
-        <v>0.0001338045417127788</v>
+        <v>0.0001567333920692183</v>
       </c>
       <c r="T23">
-        <v>0.0001338045417127788</v>
+        <v>0.0001567333920692184</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8392539999999999</v>
+        <v>0.7291693333333334</v>
       </c>
       <c r="H24">
-        <v>2.517762</v>
+        <v>2.187508</v>
       </c>
       <c r="I24">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="J24">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>35.06224833333334</v>
+        <v>41.58463166666667</v>
       </c>
       <c r="N24">
-        <v>105.186745</v>
+        <v>124.753895</v>
       </c>
       <c r="O24">
-        <v>0.1248971816460583</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="P24">
-        <v>0.1248971816460582</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="Q24">
-        <v>29.42613216274333</v>
+        <v>30.32223814929556</v>
       </c>
       <c r="R24">
-        <v>264.83518946469</v>
+        <v>272.90014334366</v>
       </c>
       <c r="S24">
-        <v>0.0004037951304207202</v>
+        <v>0.00299439931496515</v>
       </c>
       <c r="T24">
-        <v>0.0004037951304207201</v>
+        <v>0.00299439931496515</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8392539999999999</v>
+        <v>0.7291693333333334</v>
       </c>
       <c r="H25">
-        <v>2.517762</v>
+        <v>2.187508</v>
       </c>
       <c r="I25">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="J25">
-        <v>0.003233020354014241</v>
+        <v>0.01522282032087584</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>102.347857</v>
+        <v>92.85268633333334</v>
       </c>
       <c r="N25">
-        <v>307.043571</v>
+        <v>278.558059</v>
       </c>
       <c r="O25">
-        <v>0.3645789843619687</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="P25">
-        <v>0.3645789843619686</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="Q25">
-        <v>85.89584837867801</v>
+        <v>67.70533139188579</v>
       </c>
       <c r="R25">
-        <v>773.0626354081021</v>
+        <v>609.3479825269721</v>
       </c>
       <c r="S25">
-        <v>0.001178691277088084</v>
+        <v>0.006686076302849077</v>
       </c>
       <c r="T25">
-        <v>0.001178691277088084</v>
+        <v>0.006686076302849077</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.941447</v>
+        <v>4.761103</v>
       </c>
       <c r="H26">
-        <v>23.824341</v>
+        <v>14.283309</v>
       </c>
       <c r="I26">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762039</v>
       </c>
       <c r="J26">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762042</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>36.42014833333334</v>
+        <v>31.509489</v>
       </c>
       <c r="N26">
-        <v>109.260445</v>
+        <v>94.52846700000001</v>
       </c>
       <c r="O26">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="P26">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="Q26">
-        <v>289.228677721305</v>
+        <v>150.019922606367</v>
       </c>
       <c r="R26">
-        <v>2603.058099491745</v>
+        <v>1350.179303457303</v>
       </c>
       <c r="S26">
-        <v>0.003968891697895468</v>
+        <v>0.01481485473703617</v>
       </c>
       <c r="T26">
-        <v>0.003968891697895467</v>
+        <v>0.01481485473703617</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.941447</v>
+        <v>4.761103</v>
       </c>
       <c r="H27">
-        <v>23.824341</v>
+        <v>14.283309</v>
       </c>
       <c r="I27">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762039</v>
       </c>
       <c r="J27">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762042</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>23.799692</v>
       </c>
       <c r="O27">
-        <v>0.02825940145637399</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="P27">
-        <v>0.02825940145637398</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="Q27">
-        <v>63.001330878108</v>
+        <v>37.77092832675867</v>
       </c>
       <c r="R27">
-        <v>567.011977902972</v>
+        <v>339.938354940828</v>
       </c>
       <c r="S27">
-        <v>0.0008645251260991035</v>
+        <v>0.003729976703908694</v>
       </c>
       <c r="T27">
-        <v>0.0008645251260991034</v>
+        <v>0.003729976703908695</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.941447</v>
+        <v>4.761103</v>
       </c>
       <c r="H28">
-        <v>23.824341</v>
+        <v>14.283309</v>
       </c>
       <c r="I28">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762039</v>
       </c>
       <c r="J28">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762042</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>87.346929</v>
+        <v>35.34979766666667</v>
       </c>
       <c r="N28">
-        <v>262.040787</v>
+        <v>106.049393</v>
       </c>
       <c r="O28">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="P28">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="Q28">
-        <v>693.661007266263</v>
+        <v>168.3040277201597</v>
       </c>
       <c r="R28">
-        <v>6242.949065396368</v>
+        <v>1514.736249481437</v>
       </c>
       <c r="S28">
-        <v>0.009518646057448277</v>
+        <v>0.01662045733002166</v>
       </c>
       <c r="T28">
-        <v>0.009518646057448277</v>
+        <v>0.01662045733002166</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.941447</v>
+        <v>4.761103</v>
       </c>
       <c r="H29">
-        <v>23.824341</v>
+        <v>14.283309</v>
       </c>
       <c r="I29">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762039</v>
       </c>
       <c r="J29">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762042</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.618486</v>
+        <v>2.176630333333333</v>
       </c>
       <c r="N29">
-        <v>34.855458</v>
+        <v>6.529891</v>
       </c>
       <c r="O29">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="P29">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="Q29">
-        <v>92.26759078924199</v>
+        <v>10.36316120992433</v>
       </c>
       <c r="R29">
-        <v>830.408317103178</v>
+        <v>93.26845088931901</v>
       </c>
       <c r="S29">
-        <v>0.001266126436539263</v>
+        <v>0.00102338892911148</v>
       </c>
       <c r="T29">
-        <v>0.001266126436539263</v>
+        <v>0.00102338892911148</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.941447</v>
+        <v>4.761103</v>
       </c>
       <c r="H30">
-        <v>23.824341</v>
+        <v>14.283309</v>
       </c>
       <c r="I30">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762039</v>
       </c>
       <c r="J30">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762042</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>35.06224833333334</v>
+        <v>41.58463166666667</v>
       </c>
       <c r="N30">
-        <v>105.186745</v>
+        <v>124.753895</v>
       </c>
       <c r="O30">
-        <v>0.1248971816460583</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="P30">
-        <v>0.1248971816460582</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="Q30">
-        <v>278.444986840005</v>
+        <v>197.9887145820617</v>
       </c>
       <c r="R30">
-        <v>2506.004881560045</v>
+        <v>1781.898431238555</v>
       </c>
       <c r="S30">
-        <v>0.003820914320449158</v>
+        <v>0.01955189680907935</v>
       </c>
       <c r="T30">
-        <v>0.003820914320449157</v>
+        <v>0.01955189680907935</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.941447</v>
+        <v>4.761103</v>
       </c>
       <c r="H31">
-        <v>23.824341</v>
+        <v>14.283309</v>
       </c>
       <c r="I31">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762039</v>
       </c>
       <c r="J31">
-        <v>0.03059247830969567</v>
+        <v>0.09939723488762042</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>102.347857</v>
+        <v>92.85268633333334</v>
       </c>
       <c r="N31">
-        <v>307.043571</v>
+        <v>278.558059</v>
       </c>
       <c r="O31">
-        <v>0.3645789843619687</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="P31">
-        <v>0.3645789843619686</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="Q31">
-        <v>812.7900819290792</v>
+        <v>442.0812034596924</v>
       </c>
       <c r="R31">
-        <v>7315.110737361712</v>
+        <v>3978.730831137231</v>
       </c>
       <c r="S31">
-        <v>0.0111533746712644</v>
+        <v>0.04365666037846304</v>
       </c>
       <c r="T31">
-        <v>0.0111533746712644</v>
+        <v>0.04365666037846305</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>139.9562933333333</v>
+        <v>23.27607933333333</v>
       </c>
       <c r="H32">
-        <v>419.86888</v>
+        <v>69.828238</v>
       </c>
       <c r="I32">
-        <v>0.539147320142715</v>
+        <v>0.4859331807688722</v>
       </c>
       <c r="J32">
-        <v>0.5391473201427152</v>
+        <v>0.4859331807688724</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>36.42014833333334</v>
+        <v>31.509489</v>
       </c>
       <c r="N32">
-        <v>109.260445</v>
+        <v>94.52846700000001</v>
       </c>
       <c r="O32">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="P32">
-        <v>0.1297342326344841</v>
+        <v>0.1490469503883685</v>
       </c>
       <c r="Q32">
-        <v>5097.228963383511</v>
+        <v>733.4173657167941</v>
       </c>
       <c r="R32">
-        <v>45875.0606704516</v>
+        <v>6600.756291451146</v>
       </c>
       <c r="S32">
-        <v>0.06994586385565367</v>
+        <v>0.0724268586861202</v>
       </c>
       <c r="T32">
-        <v>0.06994586385565367</v>
+        <v>0.07242685868612023</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>139.9562933333333</v>
+        <v>23.27607933333333</v>
       </c>
       <c r="H33">
-        <v>419.86888</v>
+        <v>69.828238</v>
       </c>
       <c r="I33">
-        <v>0.539147320142715</v>
+        <v>0.4859331807688722</v>
       </c>
       <c r="J33">
-        <v>0.5391473201427152</v>
+        <v>0.4859331807688724</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>23.799692</v>
       </c>
       <c r="O33">
-        <v>0.02825940145637399</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="P33">
-        <v>0.02825940145637398</v>
+        <v>0.03752596043668465</v>
       </c>
       <c r="Q33">
-        <v>1110.305558264995</v>
+        <v>184.6545063669662</v>
       </c>
       <c r="R33">
-        <v>9992.750024384959</v>
+        <v>1661.890557302696</v>
       </c>
       <c r="S33">
-        <v>0.01523598056404117</v>
+        <v>0.01823510931640503</v>
       </c>
       <c r="T33">
-        <v>0.01523598056404117</v>
+        <v>0.01823510931640504</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>139.9562933333333</v>
+        <v>23.27607933333333</v>
       </c>
       <c r="H34">
-        <v>419.86888</v>
+        <v>69.828238</v>
       </c>
       <c r="I34">
-        <v>0.539147320142715</v>
+        <v>0.4859331807688722</v>
       </c>
       <c r="J34">
-        <v>0.5391473201427152</v>
+        <v>0.4859331807688724</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>87.346929</v>
+        <v>35.34979766666667</v>
       </c>
       <c r="N34">
-        <v>262.040787</v>
+        <v>106.049393</v>
       </c>
       <c r="O34">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="P34">
-        <v>0.3111433457952811</v>
+        <v>0.1672124717434336</v>
       </c>
       <c r="Q34">
-        <v>12224.75241688984</v>
+        <v>822.8046949066148</v>
       </c>
       <c r="R34">
-        <v>110022.7717520086</v>
+        <v>7405.242254159533</v>
       </c>
       <c r="S34">
-        <v>0.1677521010657639</v>
+        <v>0.08125408825851185</v>
       </c>
       <c r="T34">
-        <v>0.167752101065764</v>
+        <v>0.08125408825851187</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>139.9562933333333</v>
+        <v>23.27607933333333</v>
       </c>
       <c r="H35">
-        <v>419.86888</v>
+        <v>69.828238</v>
       </c>
       <c r="I35">
-        <v>0.539147320142715</v>
+        <v>0.4859331807688722</v>
       </c>
       <c r="J35">
-        <v>0.5391473201427152</v>
+        <v>0.4859331807688724</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.618486</v>
+        <v>2.176630333333333</v>
       </c>
       <c r="N35">
-        <v>34.855458</v>
+        <v>6.529891</v>
       </c>
       <c r="O35">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="P35">
-        <v>0.0413868541058339</v>
+        <v>0.01029594968379688</v>
       </c>
       <c r="Q35">
-        <v>1626.080234705226</v>
+        <v>50.66342031800644</v>
       </c>
       <c r="R35">
-        <v>14634.72211234704</v>
+        <v>455.970782862058</v>
       </c>
       <c r="S35">
-        <v>0.02231361148029787</v>
+        <v>0.005003143578883683</v>
       </c>
       <c r="T35">
-        <v>0.02231361148029787</v>
+        <v>0.005003143578883685</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>139.9562933333333</v>
+        <v>23.27607933333333</v>
       </c>
       <c r="H36">
-        <v>419.86888</v>
+        <v>69.828238</v>
       </c>
       <c r="I36">
-        <v>0.539147320142715</v>
+        <v>0.4859331807688722</v>
       </c>
       <c r="J36">
-        <v>0.5391473201427152</v>
+        <v>0.4859331807688724</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>35.06224833333334</v>
+        <v>41.58463166666667</v>
       </c>
       <c r="N36">
-        <v>105.186745</v>
+        <v>124.753895</v>
       </c>
       <c r="O36">
-        <v>0.1248971816460583</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="P36">
-        <v>0.1248971816460582</v>
+        <v>0.1967046350050375</v>
       </c>
       <c r="Q36">
-        <v>4907.182312666177</v>
+        <v>967.9271857207789</v>
       </c>
       <c r="R36">
-        <v>44164.6408139956</v>
+        <v>8711.34467148701</v>
       </c>
       <c r="S36">
-        <v>0.06733798077785021</v>
+        <v>0.09558530895997792</v>
       </c>
       <c r="T36">
-        <v>0.06733798077785021</v>
+        <v>0.09558530895997795</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>139.9562933333333</v>
+        <v>23.27607933333333</v>
       </c>
       <c r="H37">
-        <v>419.86888</v>
+        <v>69.828238</v>
       </c>
       <c r="I37">
-        <v>0.539147320142715</v>
+        <v>0.4859331807688722</v>
       </c>
       <c r="J37">
-        <v>0.5391473201427152</v>
+        <v>0.4859331807688724</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>102.347857</v>
+        <v>92.85268633333334</v>
       </c>
       <c r="N37">
-        <v>307.043571</v>
+        <v>278.558059</v>
       </c>
       <c r="O37">
-        <v>0.3645789843619687</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="P37">
-        <v>0.3645789843619686</v>
+        <v>0.4392140327426788</v>
       </c>
       <c r="Q37">
-        <v>14324.22669633006</v>
+        <v>2161.246493407783</v>
       </c>
       <c r="R37">
-        <v>128918.0402669705</v>
+        <v>19451.21844067004</v>
       </c>
       <c r="S37">
-        <v>0.1965617823991082</v>
+        <v>0.2134286719689735</v>
       </c>
       <c r="T37">
-        <v>0.1965617823991082</v>
+        <v>0.2134286719689736</v>
       </c>
     </row>
   </sheetData>
